--- a/basedoc/namespaces.xlsx
+++ b/basedoc/namespaces.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="90">
   <si>
     <t xml:space="preserve">Header</t>
   </si>
@@ -34,10 +34,19 @@
     <t xml:space="preserve">Remark</t>
   </si>
   <si>
+    <t xml:space="preserve">analog_comparator.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">analog</t>
+  </si>
+  <si>
     <t xml:space="preserve">analog_input.h</t>
   </si>
   <si>
-    <t xml:space="preserve">analog</t>
+    <t xml:space="preserve">bits.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bits</t>
   </si>
   <si>
     <t xml:space="preserve">eeprom.h</t>
@@ -169,6 +178,12 @@
     <t xml:space="preserve">timer.h</t>
   </si>
   <si>
+    <t xml:space="preserve">types_traits.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">types_traits</t>
+  </si>
+  <si>
     <t xml:space="preserve">uart.h</t>
   </si>
   <si>
@@ -187,12 +202,24 @@
     <t xml:space="preserve">utils</t>
   </si>
   <si>
+    <t xml:space="preserve">virtual.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">virtual_support</t>
+  </si>
+  <si>
     <t xml:space="preserve">watchdog.h</t>
   </si>
   <si>
     <t xml:space="preserve">watchdog</t>
   </si>
   <si>
+    <t xml:space="preserve">common_magneto.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">devices::magneto</t>
+  </si>
+  <si>
     <t xml:space="preserve">ds1307.h</t>
   </si>
   <si>
@@ -202,7 +229,10 @@
     <t xml:space="preserve">hmc5883l.h</t>
   </si>
   <si>
-    <t xml:space="preserve">devices::magneto</t>
+    <t xml:space="preserve">mcp23017.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">devices::mcp23017</t>
   </si>
   <si>
     <t xml:space="preserve">mpu6050.h</t>
@@ -370,12 +400,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -385,12 +415,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1048576"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="B2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="B45" activeCellId="0" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -425,140 +455,141 @@
       </c>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>9</v>
-      </c>
+      <c r="C4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>10</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>12</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>19</v>
-      </c>
       <c r="C12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="B13" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="4"/>
+      <c r="B14" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="D16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="0" t="s">
+      <c r="A17" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="B17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D18" s="4"/>
     </row>
@@ -571,19 +602,20 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="0" t="s">
-        <v>34</v>
-      </c>
+      <c r="B20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="0" t="s">
         <v>35</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -591,48 +623,48 @@
         <v>36</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="4"/>
+      <c r="A24" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="0" t="s">
-        <v>42</v>
-      </c>
+      <c r="B26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="0" t="s">
         <v>43</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -640,23 +672,23 @@
         <v>44</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -664,76 +696,77 @@
         <v>48</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D32" s="4"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>51</v>
       </c>
       <c r="B33" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="s">
+      <c r="B34" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="4" t="s">
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D34" s="4"/>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="B35" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B36" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B37" s="0" t="s">
+      <c r="A37" s="4" t="s">
         <v>58</v>
       </c>
+      <c r="B37" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" s="4"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="B38" s="0" t="s">
+      <c r="A38" s="4" t="s">
         <v>60</v>
       </c>
+      <c r="B38" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D38" s="4"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="B40" s="0" t="s">
         <v>63</v>
       </c>
     </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>64</v>
@@ -755,62 +788,106 @@
         <v>68</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44" s="0" t="s">
         <v>70</v>
-      </c>
-      <c r="B44" s="0" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="B46" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B46" s="0" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="B47" s="0" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B50" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B53" s="0" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/basedoc/namespaces.xlsx
+++ b/basedoc/namespaces.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t xml:space="preserve">Header</t>
   </si>
@@ -229,10 +229,16 @@
     <t xml:space="preserve">hmc5883l.h</t>
   </si>
   <si>
+    <t xml:space="preserve">mcp230xx.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">devices::mcp230xx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mcp23008.h</t>
+  </si>
+  <si>
     <t xml:space="preserve">mcp23017.h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">devices::mcp23017</t>
   </si>
   <si>
     <t xml:space="preserve">mpu6050.h</t>
@@ -415,21 +421,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="B2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="B20" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B45" activeCellId="0" sqref="B45"/>
+      <selection pane="bottomLeft" activeCell="A45" activeCellId="0" sqref="A45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="7.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="58.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -804,7 +809,7 @@
         <v>71</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -812,80 +817,96 @@
         <v>72</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B52" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B52" s="0" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B53" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="B53" s="0" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="B57" s="0" t="s">
         <v>89</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/basedoc/namespaces.xlsx
+++ b/basedoc/namespaces.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="133">
   <si>
     <t xml:space="preserve">Header</t>
   </si>
@@ -43,12 +43,24 @@
     <t xml:space="preserve">analog_input.h</t>
   </si>
   <si>
+    <t xml:space="preserve">array.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">containers</t>
+  </si>
+  <si>
     <t xml:space="preserve">bits.h</t>
   </si>
   <si>
     <t xml:space="preserve">bits</t>
   </si>
   <si>
+    <t xml:space="preserve">defines.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
     <t xml:space="preserve">eeprom.h</t>
   </si>
   <si>
@@ -79,27 +91,66 @@
     <t xml:space="preserve">flash</t>
   </si>
   <si>
+    <t xml:space="preserve">functors.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">functor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">future.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">future</t>
+  </si>
+  <si>
     <t xml:space="preserve">gpio.h</t>
   </si>
   <si>
     <t xml:space="preserve">gpio</t>
   </si>
   <si>
+    <t xml:space="preserve">i2c_debug.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i2c::debug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i2c_device_utilities.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i2c</t>
+  </si>
+  <si>
     <t xml:space="preserve">i2c_device.h</t>
   </si>
   <si>
-    <t xml:space="preserve">i2c</t>
+    <t xml:space="preserve">i2c_handler_atmega.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i2c_handler_attiny.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i2c_handler_common.h</t>
   </si>
   <si>
     <t xml:space="preserve">i2c_handler.h</t>
   </si>
   <si>
-    <t xml:space="preserve">i2c_manager.h</t>
+    <t xml:space="preserve">i2c_status.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i2c::status</t>
   </si>
   <si>
     <t xml:space="preserve">i2c.h</t>
   </si>
   <si>
+    <t xml:space="preserve">initializer_list.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">std</t>
+  </si>
+  <si>
     <t xml:space="preserve">int.h</t>
   </si>
   <si>
@@ -115,10 +166,28 @@
     <t xml:space="preserve">ios.h</t>
   </si>
   <si>
+    <t xml:space="preserve">iterator.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">utils</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lifecycle.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lifecycle</t>
+  </si>
+  <si>
     <t xml:space="preserve">linked_list.h</t>
   </si>
   <si>
-    <t xml:space="preserve">containers</t>
+    <t xml:space="preserve">memory.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">memory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">move.h</t>
   </si>
   <si>
     <t xml:space="preserve">pci.h</t>
@@ -199,9 +268,6 @@
     <t xml:space="preserve">utilities.h</t>
   </si>
   <si>
-    <t xml:space="preserve">utils</t>
-  </si>
-  <si>
     <t xml:space="preserve">virtual.h</t>
   </si>
   <si>
@@ -229,6 +295,45 @@
     <t xml:space="preserve">hmc5883l.h</t>
   </si>
   <si>
+    <t xml:space="preserve">mcp3x0x.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">devices::mcp3x0x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mcp3001.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mcp3002.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mcp3004.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mcp3008.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mcp3201.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mcp3202.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mcp3204.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mcp3208.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mcp3301.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mcp3302.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mcp3304.h</t>
+  </si>
+  <si>
     <t xml:space="preserve">mcp230xx.h</t>
   </si>
   <si>
@@ -281,6 +386,24 @@
   </si>
   <si>
     <t xml:space="preserve">tones.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vl53l0x_internals.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">devices::vl53l0x_internals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vl53l0x_registers.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">devices::vl53l0x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vl53l0x_types.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vl53l0x.h</t>
   </si>
   <si>
     <t xml:space="preserve">winbond.h</t>
@@ -379,7 +502,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -404,6 +527,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,21 +544,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="B20" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="B11" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A45" activeCellId="0" sqref="A45"/>
+      <selection pane="bottomLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="7.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="58.41"/>
@@ -473,26 +600,28 @@
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="C6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -533,275 +662,285 @@
       <c r="B11" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="0"/>
+        <v>24</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="0"/>
+        <v>26</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="0"/>
+        <v>28</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="4"/>
+      <c r="A15" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="4"/>
+      <c r="A16" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="4"/>
+      <c r="A17" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="4"/>
+      <c r="A18" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>32</v>
       </c>
+      <c r="C19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="4"/>
+      <c r="A20" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>35</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>37</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>5</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>32</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>37</v>
-      </c>
+      <c r="A25" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="4"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>43</v>
-      </c>
+      <c r="D27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>45</v>
-      </c>
+      <c r="A28" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="4"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>37</v>
-      </c>
+      <c r="A29" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="4"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>12</v>
-      </c>
+      <c r="A30" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="4"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>53</v>
-      </c>
+      <c r="A34" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="4"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D35" s="4"/>
+      <c r="A35" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D37" s="4"/>
+      <c r="A37" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D38" s="4"/>
+      <c r="A38" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="4"/>
+    </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -809,7 +948,7 @@
         <v>71</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -817,56 +956,59 @@
         <v>72</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="B49" s="0" t="s">
+      <c r="A49" s="4" t="s">
         <v>77</v>
       </c>
+      <c r="B49" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D49" s="4"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="B51" s="0" t="s">
+      <c r="A51" s="4" t="s">
         <v>81</v>
       </c>
+      <c r="B51" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D51" s="4"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+      <c r="A52" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B52" s="4" t="s">
         <v>83</v>
       </c>
+      <c r="D52" s="4"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
@@ -876,43 +1018,276 @@
         <v>85</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B55" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="B55" s="0" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="B58" s="0" t="s">
         <v>91</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/basedoc/namespaces.xlsx
+++ b/basedoc/namespaces.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="135">
   <si>
     <t xml:space="preserve">Header</t>
   </si>
@@ -172,12 +172,6 @@
     <t xml:space="preserve">utils</t>
   </si>
   <si>
-    <t xml:space="preserve">lifecycle.h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lifecycle</t>
-  </si>
-  <si>
     <t xml:space="preserve">linked_list.h</t>
   </si>
   <si>
@@ -292,6 +286,12 @@
     <t xml:space="preserve">devices::rtc</t>
   </si>
   <si>
+    <t xml:space="preserve">grove_rfid_reader.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">devices::rfid</t>
+  </si>
+  <si>
     <t xml:space="preserve">hmc5883l.h</t>
   </si>
   <si>
@@ -406,16 +406,22 @@
     <t xml:space="preserve">vl53l0x.h</t>
   </si>
   <si>
+    <t xml:space="preserve">wiegand.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">devices::protocols</t>
+  </si>
+  <si>
     <t xml:space="preserve">winbond.h</t>
   </si>
   <si>
-    <t xml:space="preserve">boards</t>
+    <t xml:space="preserve">board.h</t>
   </si>
   <si>
     <t xml:space="preserve">board</t>
   </si>
   <si>
-    <t xml:space="preserve">boards traits</t>
+    <t xml:space="preserve">board_traits.h</t>
   </si>
   <si>
     <t xml:space="preserve">board_trait</t>
@@ -548,15 +554,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="B11" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="B53" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
+      <selection pane="bottomLeft" activeCell="A90" activeCellId="0" sqref="A90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.57"/>
@@ -821,20 +827,19 @@
       <c r="D29" s="4"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D30" s="4"/>
+      <c r="B30" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="0" t="s">
         <v>52</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -842,25 +847,25 @@
         <v>53</v>
       </c>
       <c r="B32" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="B33" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="0" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="s">
+      <c r="B34" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D34" s="4"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
@@ -875,41 +880,41 @@
         <v>59</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B38" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="B39" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4" t="s">
+      <c r="B40" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D40" s="4"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
@@ -924,20 +929,20 @@
         <v>67</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>16</v>
@@ -945,10 +950,10 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" s="0" t="s">
         <v>71</v>
-      </c>
-      <c r="B45" s="0" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -956,69 +961,69 @@
         <v>72</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B47" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="B47" s="0" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="A48" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" s="4" t="s">
         <v>76</v>
       </c>
+      <c r="D48" s="4"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="D49" s="4"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+      <c r="A50" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B50" s="0" t="s">
-        <v>80</v>
-      </c>
+      <c r="B50" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" s="4"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="D51" s="4"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="D52" s="4"/>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B54" s="0" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
         <v>86</v>
@@ -1040,7 +1045,7 @@
         <v>90</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1168,7 +1173,7 @@
         <v>108</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1263,25 +1268,33 @@
       <c r="A85" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="B85" s="0" t="s">
+      <c r="B85" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B86" s="0" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="B87" s="0" t="s">
-        <v>130</v>
-      </c>
-    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
         <v>131</v>
       </c>
       <c r="B88" s="0" t="s">
         <v>132</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
